--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1437620.402449489</v>
+        <v>1435241.478244485</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10565130.97251018</v>
+        <v>10565130.97251019</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.74698963171027</v>
+        <v>105.4771979831575</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414566</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>72.0880274467734</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>251.2285928046449</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>183.1642512458445</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>66.76195975981908</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>36.13415693252421</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>107.0704956909094</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>92.72329049755604</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>230.1984816395469</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>150.4026958753531</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>155.5594962886094</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>21.86908587766089</v>
       </c>
       <c r="D13" t="n">
-        <v>115.4698969420336</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>97.69259516727905</v>
       </c>
       <c r="X16" t="n">
-        <v>223.935186887571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>185.9716038103477</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>76.17911085996755</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,19 +2293,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>251.724008205924</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>147.5815360578251</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>195.2208281702714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.6164309267676</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>100.4429877184271</v>
       </c>
       <c r="H31" t="n">
-        <v>55.52079624060383</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.27552175740387</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986295</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158525</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>108.5813113004251</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890419</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>38.61213096654825</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4319,61 +4319,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="W2" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="X2" t="n">
-        <v>2746.162315732312</v>
+        <v>2841.849394875188</v>
       </c>
       <c r="Y2" t="n">
-        <v>2356.022983756501</v>
+        <v>2451.710062899377</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
         <v>2435.471302619336</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.837793613838</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="C4" t="n">
-        <v>163.837793613838</v>
+        <v>751.9508228902789</v>
       </c>
       <c r="D4" t="n">
-        <v>163.837793613838</v>
+        <v>601.8341834779432</v>
       </c>
       <c r="E4" t="n">
-        <v>163.837793613838</v>
+        <v>453.92108989555</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>307.0311423976397</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>139.3283057723586</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962297</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U4" t="n">
-        <v>163.837793613838</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="V4" t="n">
-        <v>163.837793613838</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="W4" t="n">
-        <v>163.837793613838</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="X4" t="n">
-        <v>163.837793613838</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.837793613838</v>
+        <v>920.8870058181858</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2232.598233480555</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1863.635716540143</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1505.370017933393</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1119.581765335148</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>708.595860545541</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>293.5234103905374</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520489</v>
+        <v>2004.539063190924</v>
       </c>
       <c r="Y5" t="n">
-        <v>2619.198073544677</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.366968906868</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="C7" t="n">
-        <v>342.366968906868</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="D7" t="n">
-        <v>342.366968906868</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>342.366968906868</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>342.366968906868</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>174.6641322815869</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438286</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438286</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="W7" t="n">
-        <v>342.366968906868</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="X7" t="n">
-        <v>342.366968906868</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.366968906868</v>
+        <v>417.6040489720659</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796252</v>
+        <v>1865.035106955554</v>
       </c>
       <c r="C8" t="n">
-        <v>828.1105664881544</v>
+        <v>1496.072590015142</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>1137.806891408392</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>752.0186388101474</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>341.0327340205399</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2251.634947019676</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>831.0565485757129</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>831.0565485757129</v>
+        <v>763.7562014862567</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.0565485757129</v>
+        <v>542.9636223427266</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,13 +5051,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5072,7 +5072,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>379.3891055132865</v>
+        <v>266.0232881953186</v>
       </c>
       <c r="C13" t="n">
-        <v>210.4529225853796</v>
+        <v>243.9333024603076</v>
       </c>
       <c r="D13" t="n">
         <v>93.81666304797189</v>
@@ -5230,19 +5230,19 @@
         <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.480314654151</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V13" t="n">
-        <v>896.7958264482644</v>
+        <v>1185.871053104067</v>
       </c>
       <c r="W13" t="n">
-        <v>607.3786564113038</v>
+        <v>896.4538830671058</v>
       </c>
       <c r="X13" t="n">
-        <v>379.3891055132865</v>
+        <v>668.4643321690885</v>
       </c>
       <c r="Y13" t="n">
-        <v>379.3891055132865</v>
+        <v>447.6717530255584</v>
       </c>
     </row>
     <row r="14">
@@ -5303,7 +5303,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="C16" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="D16" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5458,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562356</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1373.509837562356</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T16" t="n">
-        <v>1373.509837562356</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U16" t="n">
-        <v>1373.509837562356</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="V16" t="n">
-        <v>1118.825349356469</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="W16" t="n">
-        <v>829.4081793195082</v>
+        <v>650.3446262741393</v>
       </c>
       <c r="X16" t="n">
-        <v>603.2110208472143</v>
+        <v>422.3550753761219</v>
       </c>
       <c r="Y16" t="n">
-        <v>382.4184417036842</v>
+        <v>422.3550753761219</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,25 +5671,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
         <v>1440.555541309953</v>
@@ -5701,22 +5701,22 @@
         <v>1440.555541309953</v>
       </c>
       <c r="T19" t="n">
-        <v>1220.954076332895</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U19" t="n">
-        <v>1220.954076332895</v>
+        <v>1033.103971473957</v>
       </c>
       <c r="V19" t="n">
-        <v>966.2695881270078</v>
+        <v>778.4194832680698</v>
       </c>
       <c r="W19" t="n">
-        <v>889.3209912987577</v>
+        <v>489.0023132311093</v>
       </c>
       <c r="X19" t="n">
-        <v>889.3209912987577</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>261.0127623330919</v>
       </c>
     </row>
     <row r="20">
@@ -5753,22 +5753,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>429.9489452609988</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>381.7182656184125</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>772.1168597943526</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.437033731414</v>
+        <v>1194.126562525387</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.846905391422</v>
+        <v>1611.536434185396</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100407</v>
+        <v>1981.065714894381</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673966</v>
+        <v>2273.741170467939</v>
       </c>
       <c r="Q22" t="n">
         <v>2328.249876400865</v>
       </c>
       <c r="R22" t="n">
-        <v>2328.249876400865</v>
+        <v>2261.204172653267</v>
       </c>
       <c r="S22" t="n">
-        <v>2145.395042055769</v>
+        <v>2078.349338308171</v>
       </c>
       <c r="T22" t="n">
-        <v>1925.79357707871</v>
+        <v>1858.747873331113</v>
       </c>
       <c r="U22" t="n">
-        <v>1636.718350422908</v>
+        <v>1604.481198375634</v>
       </c>
       <c r="V22" t="n">
-        <v>1636.718350422908</v>
+        <v>1349.796710169747</v>
       </c>
       <c r="W22" t="n">
-        <v>1347.301180385947</v>
+        <v>1060.379540132786</v>
       </c>
       <c r="X22" t="n">
-        <v>1347.301180385947</v>
+        <v>832.3899892347687</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>611.5974100912385</v>
       </c>
     </row>
     <row r="23">
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>849.3843576263199</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>336.9860575577204</v>
       </c>
       <c r="G31" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2414.36154645157</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2414.36154645157</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2414.36154645157</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>2125.286319795768</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V34" t="n">
-        <v>1870.601831589881</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.18466155292</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="35">
@@ -6938,19 +6938,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>653.747479770889</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011287</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>984.5467179762896</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>815.6105350483828</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>665.493895636047</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>517.5808020536539</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>370.6908545557435</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>203.4947552706234</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806529</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1166.195182806529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7594,16 +7594,16 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
         <v>1202.091371290588</v>
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,10 +7664,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
   </sheetData>
@@ -9556,16 +9556,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>85.81063556088924</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>58.59733042520764</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
@@ -9577,7 +9577,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>145.3777352209669</v>
       </c>
       <c r="D13" t="n">
-        <v>33.14557607617874</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,7 +23470,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,7 +23668,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>188.8304031693119</v>
       </c>
       <c r="X16" t="n">
-        <v>1.774468501466146</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>100.2128705788964</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>210.3438874766235</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>34.46046618332011</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.00311729426967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>30.48882721876572</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.96822242532721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>65.0811505738417</v>
       </c>
       <c r="H31" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.09972495271781</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>138.4949402405095</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>31.71340154579883</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881138.6510463719</v>
+        <v>881138.651046372</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881138.6510463721</v>
+        <v>881138.651046372</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881138.6510463718</v>
+        <v>881138.6510463719</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>918316.6347913962</v>
+        <v>918316.634791396</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>923288.5237765649</v>
+        <v>923288.5237765647</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>923288.5237765649</v>
+        <v>923288.523776565</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>923288.5237765647</v>
+        <v>923288.5237765649</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>489521.4728035397</v>
+        <v>489521.4728035396</v>
       </c>
       <c r="F2" t="n">
-        <v>489521.4728035398</v>
+        <v>489521.4728035395</v>
       </c>
       <c r="G2" t="n">
         <v>489521.4728035397</v>
@@ -26332,19 +26332,19 @@
         <v>502703.7336796397</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="J2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="K2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
@@ -26353,7 +26353,7 @@
         <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405237</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
         <v>761.3882086835454</v>
@@ -26430,7 +26430,7 @@
         <v>761.3882086835454</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
         <v>14243.58217073097</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1017124.324227861</v>
+        <v>-1017124.324227862</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997313</v>
+        <v>311620.4214997314</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997313</v>
+        <v>311620.4214997312</v>
       </c>
       <c r="E6" t="n">
-        <v>62225.09296359339</v>
+        <v>62130.57443014726</v>
       </c>
       <c r="F6" t="n">
-        <v>387637.5547709494</v>
+        <v>387543.0362375024</v>
       </c>
       <c r="G6" t="n">
-        <v>387637.554770949</v>
+        <v>387543.0362375027</v>
       </c>
       <c r="H6" t="n">
-        <v>387337.6216850018</v>
+        <v>387295.8321950595</v>
       </c>
       <c r="I6" t="n">
-        <v>387297.5110104547</v>
+        <v>387262.7730850189</v>
       </c>
       <c r="J6" t="n">
-        <v>169766.3086131772</v>
+        <v>169731.5706877414</v>
       </c>
       <c r="K6" t="n">
-        <v>387297.5110104546</v>
+        <v>387262.7730850187</v>
       </c>
       <c r="L6" t="n">
-        <v>387297.5110104547</v>
+        <v>387262.773085019</v>
       </c>
       <c r="M6" t="n">
-        <v>302242.4830749426</v>
+        <v>302207.7451495071</v>
       </c>
       <c r="N6" t="n">
-        <v>387297.5110104547</v>
+        <v>387262.773085019</v>
       </c>
       <c r="O6" t="n">
-        <v>387297.5110104547</v>
+        <v>387262.773085019</v>
       </c>
       <c r="P6" t="n">
-        <v>387297.5110104547</v>
+        <v>387262.7730850187</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.9868520317703</v>
+        <v>277.2566436803231</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>72.66698746754739</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>34.98324540096797</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>111.4435131414759</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>302.9691409186499</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4813160856881</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>37.68451922341134</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>272.5496012734515</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>180.7232440139065</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>16.84412522327472</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>70.15015910042771</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30444,7 +30444,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,16 +32315,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33430,10 +33430,10 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597632</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859626</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K13" t="n">
         <v>157.5888220649825</v>
@@ -35574,19 +35574,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L19" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
         <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
         <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>243.3994576258717</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>306.3600965168071</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37078,10 +37078,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
